--- a/register/design.xlsx
+++ b/register/design.xlsx
@@ -2,30 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B937EE07-7755-4D0C-BE5E-BFECB503D3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C1DB8-1E09-42B0-ADF9-7FF22B8FCB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2055" windowWidth="12030" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="1560" windowWidth="15405" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="obj" sheetId="1" r:id="rId1"/>
+    <sheet name="gui" sheetId="2" r:id="rId2"/>
+    <sheet name="fb" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>node obj</t>
   </si>
@@ -58,6 +68,153 @@
   </si>
   <si>
     <t>content</t>
+  </si>
+  <si>
+    <t>prog1</t>
+  </si>
+  <si>
+    <t>prog2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>prog3</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>unregister</t>
+  </si>
+  <si>
+    <t>option 1 \t5</t>
+  </si>
+  <si>
+    <t>option 2 \t10</t>
+  </si>
+  <si>
+    <t>firebase data</t>
+  </si>
+  <si>
+    <t>local data</t>
+  </si>
+  <si>
+    <t>&lt;date&gt;</t>
+  </si>
+  <si>
+    <t>&lt;json obj&gt;</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>&lt;id&gt;</t>
+  </si>
+  <si>
+    <t>add new obj</t>
+  </si>
+  <si>
+    <t>update obj</t>
+  </si>
+  <si>
+    <t>program/user/…</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>&lt;count&gt;</t>
+  </si>
+  <si>
+    <t>field = value, …</t>
+  </si>
+  <si>
+    <t>field = value, ….</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t>1,2,..</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>&lt;--0--</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>---&gt;</t>
+  </si>
+  <si>
+    <t>----0--&gt;</t>
+  </si>
+  <si>
+    <t>rand y</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>do some thing</t>
+  </si>
+  <si>
+    <t>&lt;---</t>
+  </si>
+  <si>
+    <t>&lt;----y</t>
+  </si>
+  <si>
+    <t>max time out</t>
   </si>
 </sst>
 </file>
@@ -87,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -95,13 +252,275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +536,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left-Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3338A558-8757-45AB-9CD0-EED5B90328F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1371600"/>
+          <a:ext cx="923925" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sync</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,10 +870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,4 +942,668 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE547B57-6546-4E7C-A526-2618FE6E8B93}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="17" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6"/>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BE2B8-3602-46CF-B854-03C1E8B0E30E}">
+  <dimension ref="B4:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="16"/>
+      <c r="H20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="22">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="18"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/register/design.xlsx
+++ b/register/design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C1DB8-1E09-42B0-ADF9-7FF22B8FCB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50415FAC-EC2B-4869-9991-6DE0E23E9CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="1560" windowWidth="15405" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="17115" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="obj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>node obj</t>
   </si>
@@ -215,6 +215,39 @@
   </si>
   <si>
     <t>max time out</t>
+  </si>
+  <si>
+    <t>user form</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>add/update</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -230,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -490,11 +529,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -521,6 +571,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,10 +1000,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE547B57-6546-4E7C-A526-2618FE6E8B93}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:Q21"/>
+  <dimension ref="A2:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,390 +1011,696 @@
     <col min="2" max="17" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="C4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="6"/>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+      <c r="C5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="6"/>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="16"/>
+      <c r="C6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="11" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="G25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="24"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="17"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="17"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="16"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="17"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="17"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="17"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="17"/>
+      <c r="G47" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="16"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="17"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="16"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="17"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="16"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="17"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="16"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="17"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="16"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="17"/>
+      <c r="G52" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="19"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1352,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BE2B8-3602-46CF-B854-03C1E8B0E30E}">
   <dimension ref="B4:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
